--- a/Excel/TestData.xlsx
+++ b/Excel/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{76BF5EF5-D6C9-480C-95D3-714340DBFEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2FB68AAF-7240-4A44-B289-BCF3FE2B5A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Password</t>
   </si>
@@ -29,7 +29,10 @@
     <t>username</t>
   </si>
   <si>
-    <t>test@test.com</t>
+    <t>nsneeraj68@gmail.com</t>
+  </si>
+  <si>
+    <t>Neeraj@123</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -372,8 +375,8 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>12345</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
